--- a/target/test-classes/SINIF.xlsx
+++ b/target/test-classes/SINIF.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
   <si>
     <t>Ogrenci</t>
   </si>
@@ -420,7 +420,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -433,8 +433,8 @@
       <c r="C2" s="1">
         <v>150</v>
       </c>
-      <c r="D2" s="1">
-        <v>45</v>
+      <c r="D2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -447,8 +447,8 @@
       <c r="C3" s="1">
         <v>145</v>
       </c>
-      <c r="D3" s="1">
-        <v>52</v>
+      <c r="D3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -461,8 +461,8 @@
       <c r="C4" s="1">
         <v>152</v>
       </c>
-      <c r="D4" s="1">
-        <v>53</v>
+      <c r="D4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -475,8 +475,8 @@
       <c r="C5" s="1">
         <v>147</v>
       </c>
-      <c r="D5" s="1">
-        <v>47</v>
+      <c r="D5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -489,8 +489,8 @@
       <c r="C6" s="1">
         <v>153</v>
       </c>
-      <c r="D6" s="1">
-        <v>56</v>
+      <c r="D6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -503,8 +503,8 @@
       <c r="C7" s="1">
         <v>156</v>
       </c>
-      <c r="D7" s="1">
-        <v>49</v>
+      <c r="D7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -517,8 +517,8 @@
       <c r="C8" s="1">
         <v>148</v>
       </c>
-      <c r="D8" s="1">
-        <v>50</v>
+      <c r="D8" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
